--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.5_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1348668585801454</v>
+        <v>0.1178764178612974</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3020676661279283</v>
+        <v>0.3408936812763721</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3020676661279283, 'ngram_match_score': 0.133620121835251, 'weighted_ngram_match_score': 0.1726358906618101, 'syntax_match_score': 0.532967032967033, 'dataflow_match_score': 0.36904761904761907}</t>
+          <t>{'codebleu': 0.3408936812763721, 'ngram_match_score': 0.11671135607664002, 'weighted_ngram_match_score': 0.15620402836950756, 'syntax_match_score': 0.554945054945055, 'dataflow_match_score': 0.5357142857142857}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.9208390536171729</v>
+        <v>0.8509027962175195</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
